--- a/Team-Data/2008-09/2-5-2008-09.xlsx
+++ b/Team-Data/2008-09/2-5-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -774,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -810,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -851,64 +918,64 @@
         <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J3" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.484</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.388</v>
       </c>
       <c r="O3" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
@@ -917,13 +984,13 @@
         <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>3</v>
@@ -932,31 +999,31 @@
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
         <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -965,37 +1032,37 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1150,7 +1217,7 @@
         <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1165,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.44</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,43 +1297,43 @@
         <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.785</v>
+        <v>0.783</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1278,61 +1345,61 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>9</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
@@ -1341,10 +1408,10 @@
         <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1353,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.83</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.383</v>
+        <v>0.381</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
@@ -1445,34 +1512,34 @@
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1499,22 +1566,22 @@
         <v>4</v>
       </c>
       <c r="AM6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,19 +1593,19 @@
         <v>18</v>
       </c>
       <c r="AV6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
         <v>4</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AZ6" t="n">
         <v>11</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>10</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
         <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.592</v>
+        <v>0.604</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1597,16 +1664,16 @@
         <v>82.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O7" t="n">
         <v>17.7</v>
@@ -1618,13 +1685,13 @@
         <v>0.819</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
         <v>21.4</v>
@@ -1633,28 +1700,28 @@
         <v>13.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1663,19 +1730,19 @@
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1684,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1699,10 +1766,10 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1711,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1720,7 +1787,7 @@
         <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1860,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
@@ -1887,10 +1954,10 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2027,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -2060,7 +2127,7 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
@@ -2078,16 +2145,16 @@
         <v>27</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2291,7 @@
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>15</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
@@ -2251,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -2388,19 +2455,19 @@
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>24</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>20</v>
@@ -2442,13 +2509,13 @@
         <v>24</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
         <v>28</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA11" t="n">
         <v>14</v>
@@ -2457,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>0.38</v>
+        <v>0.388</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="J12" t="n">
         <v>86.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="N12" t="n">
         <v>0.368</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.805</v>
+        <v>0.803</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
@@ -2534,7 +2601,7 @@
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>22.8</v>
@@ -2549,22 +2616,22 @@
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
         <v>23.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
@@ -2591,16 +2658,16 @@
         <v>7</v>
       </c>
       <c r="AM12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN12" t="n">
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
@@ -2627,19 +2694,19 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>29</v>
@@ -2791,7 +2858,7 @@
         <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT13" t="n">
         <v>19</v>
@@ -2800,7 +2867,7 @@
         <v>22</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2812,7 +2879,7 @@
         <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -2862,13 +2929,13 @@
         <v>0.8129999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
@@ -2877,28 +2944,28 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.379</v>
       </c>
       <c r="O14" t="n">
         <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.774</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
         <v>23.3</v>
@@ -2907,40 +2974,40 @@
         <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2964,16 +3031,16 @@
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,28 +3049,28 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3128,22 +3195,22 @@
         <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK15" t="n">
         <v>18</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3352,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>7</v>
@@ -3367,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.471</v>
+        <v>0.462</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.447</v>
@@ -3426,31 +3493,31 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,16 +3529,16 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB17" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3504,13 +3571,13 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>8</v>
@@ -3525,25 +3592,25 @@
         <v>15</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
@@ -3674,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3686,16 +3753,16 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP18" t="n">
         <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
@@ -3728,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
@@ -3868,16 +3935,16 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3892,7 +3959,7 @@
         <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
@@ -3913,7 +3980,7 @@
         <v>17</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4093,7 @@
         <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>8</v>
@@ -4065,7 +4132,7 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
         <v>29</v>
@@ -4074,7 +4141,7 @@
         <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>25</v>
@@ -4244,19 +4311,19 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT21" t="n">
         <v>7</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>9</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW21" t="n">
         <v>14</v>
@@ -4277,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4396,7 +4463,7 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -4405,7 +4472,7 @@
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4417,7 +4484,7 @@
         <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4626,10 +4693,10 @@
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ23" t="n">
         <v>5</v>
@@ -4641,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
         <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J24" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L24" t="n">
         <v>4.3</v>
@@ -4700,58 +4767,58 @@
         <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.327</v>
+        <v>0.325</v>
       </c>
       <c r="O24" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P24" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T24" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U24" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V24" t="n">
         <v>15.4</v>
       </c>
       <c r="W24" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA24" t="n">
         <v>20.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
@@ -4760,7 +4827,7 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>14</v>
@@ -4769,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4796,10 +4863,10 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>24</v>
@@ -4811,10 +4878,10 @@
         <v>7</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>18</v>
@@ -4823,7 +4890,7 @@
         <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4939,10 +5006,10 @@
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4966,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="AP25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ25" t="n">
         <v>19</v>
@@ -4975,7 +5042,7 @@
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT25" t="n">
         <v>14</v>
@@ -4990,7 +5057,7 @@
         <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5002,10 +5069,10 @@
         <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.638</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.766</v>
+        <v>0.763</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
@@ -5094,25 +5161,25 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,13 +5191,13 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>9</v>
@@ -5142,10 +5209,10 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP26" t="n">
         <v>13</v>
@@ -5160,7 +5227,7 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5175,19 +5242,19 @@
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -5324,13 +5391,13 @@
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>4</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5670,28 +5737,28 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI29" t="n">
         <v>20</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>20</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5721,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.476</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="M30" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.342</v>
+        <v>0.337</v>
       </c>
       <c r="O30" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P30" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
@@ -5825,52 +5892,52 @@
         <v>4.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
         <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
       </c>
       <c r="AG30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH30" t="n">
         <v>12</v>
       </c>
-      <c r="AH30" t="n">
-        <v>14</v>
-      </c>
       <c r="AI30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,19 +5949,19 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5903,7 +5970,7 @@
         <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>24</v>
@@ -5915,7 +5982,7 @@
         <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
@@ -6064,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>29</v>
@@ -6088,7 +6155,7 @@
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-5-2008-09</t>
+          <t>2009-02-05</t>
         </is>
       </c>
     </row>
